--- a/ConfigData/Xlsx/Tournament.xlsx
+++ b/ConfigData/Xlsx/Tournament.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
@@ -250,8 +255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -733,6 +744,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,28 +912,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -906,54 +957,156 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N14" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:N14"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="ApplyDate"/>
-    <tableColumn id="5" name="BeginDate"/>
-    <tableColumn id="6" name="EndDate"/>
-    <tableColumn id="7" name="MinLevel"/>
-    <tableColumn id="8" name="MaxLevel"/>
-    <tableColumn id="9" name="PlayerCount"/>
-    <tableColumn id="10" name="MatchCount"/>
-    <tableColumn id="11" name="Awards"/>
-    <tableColumn id="12" name="Resource"/>
-    <tableColumn id="13" name="Map"/>
-    <tableColumn id="14" name="Icon"/>
+    <tableColumn id="1" name="序列"/>
+    <tableColumn id="2" name="名字"/>
+    <tableColumn id="3" name="类型"/>
+    <tableColumn id="4" name="申请日"/>
+    <tableColumn id="5" name="开始日"/>
+    <tableColumn id="6" name="结束日"/>
+    <tableColumn id="7" name="最小等级"/>
+    <tableColumn id="8" name="最大等级"/>
+    <tableColumn id="9" name="玩家数"/>
+    <tableColumn id="10" name="比赛数"/>
+    <tableColumn id="11" name="奖励"/>
+    <tableColumn id="12" name="资源奖励"/>
+    <tableColumn id="13" name="战斗文件"/>
+    <tableColumn id="14" name="路径"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -988,7 +1141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,9 +1173,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,6 +1225,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,14 +1418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="10.75" customWidth="1"/>
@@ -1244,51 +1433,51 @@
     <col min="12" max="12" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1332,51 +1521,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>54</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1420,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1464,7 +1653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1508,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1552,7 +1741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1596,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1640,7 +1829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1684,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1728,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1772,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1816,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
